--- a/data/trans_bre/P15E_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15E_R-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>25.45967960470757</v>
+        <v>25.45967960470756</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.5097489698509332</v>
+        <v>0.509748969850933</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.937306838709084</v>
+        <v>-13.32715309182875</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1314531950457024</v>
+        <v>-0.1696618119935408</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>63.99933564743638</v>
+        <v>60.62703728701378</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5.16453134228147</v>
+        <v>4.4306132261408</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>35.9214273678911</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.6997795175679219</v>
+        <v>0.6997795175679218</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.706297036047395</v>
+        <v>-5.693731808233538</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06861229312530237</v>
+        <v>-0.0685460073840275</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>77.75797506945888</v>
+        <v>74.37231948452602</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.512496907635688</v>
+        <v>4.258129698682436</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-21.69856198900392</v>
+        <v>-21.69856198900393</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.3330830479669401</v>
+        <v>-0.3330830479669404</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-51.63861806651187</v>
+        <v>-51.35908906799514</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6700679572702545</v>
+        <v>-0.6502971697476507</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.82612233203401</v>
+        <v>12.83684982858938</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3505086626477727</v>
+        <v>0.3011899666970711</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-27.39286394553318</v>
+        <v>-27.39286394553316</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2739286394553317</v>
+        <v>-0.2739286394553316</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-56.66812007377104</v>
+        <v>-63.37075600441133</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5666812007377103</v>
+        <v>-0.6337075600441133</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-8.58517981744448</v>
+        <v>-8.457165625500739</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0858517981744448</v>
+        <v>-0.08457165625500739</v>
       </c>
     </row>
     <row r="16">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-8.566114103170097</v>
+        <v>-8.566114103170108</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1043850086335323</v>
+        <v>-0.1043850086335324</v>
       </c>
     </row>
     <row r="20">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-26.91787040024308</v>
+        <v>-28.21909358995847</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2981198049064718</v>
+        <v>-0.3082069036572654</v>
       </c>
     </row>
     <row r="21">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.73543181650993</v>
+        <v>17.08588231191825</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3160983423578633</v>
+        <v>0.2840736231389107</v>
       </c>
     </row>
     <row r="22">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.046903331595868</v>
+        <v>-7.269720852369418</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.067741199909372</v>
+        <v>-0.09915015090775278</v>
       </c>
     </row>
     <row r="24">
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>68.310883322069</v>
+        <v>70.79301023197938</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>4.794055677332016</v>
+        <v>4.60297034901419</v>
       </c>
     </row>
     <row r="25">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>17.61503932356852</v>
+        <v>17.6150393235685</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3500021593013433</v>
+        <v>0.350002159301343</v>
       </c>
     </row>
     <row r="26">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-47.9550834706837</v>
+        <v>-49.83424822542261</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
     </row>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>84.53236248457806</v>
+        <v>84.05304967214697</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>8.902666934337322</v>
+        <v>8.902666934337333</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.1390662433073198</v>
+        <v>0.13906624330732</v>
       </c>
     </row>
     <row r="29">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.715311063267312</v>
+        <v>-5.021279215627996</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.08729650589058829</v>
+        <v>-0.06694164860009816</v>
       </c>
     </row>
     <row r="30">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.68677826600818</v>
+        <v>23.7276209768889</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.4459724706913721</v>
+        <v>0.4551849865324136</v>
       </c>
     </row>
     <row r="31">
